--- a/data/fo_result_8.xlsx
+++ b/data/fo_result_8.xlsx
@@ -403,10 +403,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2.0843082</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.8496802</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -421,10 +421,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.3981505</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.6481312</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -432,10 +432,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2.0005375</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.9761146000000001</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -447,10 +447,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0336152</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.8745617999999999</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -461,10 +461,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.2655257</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.5315427</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -476,10 +476,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0557882</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.0013062</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -490,10 +490,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.3703235</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.0176828</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -505,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>5.4845512</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.4656038</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -519,13 +519,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.1020834</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.6202176</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0873437</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -534,10 +534,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.6616358</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.3189918</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1.1272356</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.7452494</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -566,10 +566,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.4778367</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.7600764</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -577,10 +577,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1.3843878</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1.096159</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.4594696</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.231518</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.6135109</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -606,10 +606,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1.6480087</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1.0238191</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -621,13 +621,13 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.2583268</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.4609116</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.0272155</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -635,10 +635,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2.3091312</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.8261148</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -650,13 +650,13 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.1141337</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.7434456</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.4890118</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -664,10 +664,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2.7872761</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.8605448</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -679,13 +679,13 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0806221</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.5991442</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.435493</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -693,10 +693,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2.5095587</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.7209104</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -708,10 +708,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0667005</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.4634356</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2.3195296</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.8525362</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0289683</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3.9203918</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.3269101</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -751,13 +751,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1.7241269</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.7673944</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.1584105</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0137665</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.5059694</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.7729332</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -780,10 +780,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1.8764018</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.8274621</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0053048</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.7004568</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1.8462773</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.6183502</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0055513</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.1319214</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.5497278</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -838,10 +838,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1.8220348</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1.2800924</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -853,13 +853,13 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0064204</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.2598977</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4.0657536</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -867,10 +867,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1.5841321</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.8520165</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.9941808</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1.0876695</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.7317969</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -911,13 +911,13 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0021864</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.2799699</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.0619104</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -925,10 +925,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1.4203475</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.7264121</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0022366</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.9871316</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -954,10 +954,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>2.8962422</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.8741935</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -969,13 +969,13 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0020107</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.2595739</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.5607308</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -983,10 +983,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1.4158143</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.9860669</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1001,10 +1001,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.4133021</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.3999752</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1012,10 +1012,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1.5251634</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0261617</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1030,10 +1030,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.7953241</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.0454499</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1041,13 +1041,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1.693984</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.734897</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.2007419</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.1013646</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.6200538</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1070,10 +1070,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1.3807854</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.6057597</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1088,10 +1088,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.5614037</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.3951434</v>
       </c>
     </row>
   </sheetData>
